--- a/src/static/template.xlsx
+++ b/src/static/template.xlsx
@@ -1,123 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-31245" yWindow="-6795" windowWidth="25605" windowHeight="14625" tabRatio="500"/>
+    <workbookView windowWidth="22845" windowHeight="11400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="导入模版" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>角色</t>
-    <rPh sb="0" eb="1">
-      <t>jue se</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+  <si>
+    <t>业务编号</t>
+  </si>
+  <si>
+    <t>负责人/机构</t>
   </si>
   <si>
     <t>名称</t>
-    <rPh sb="0" eb="1">
-      <t>ming cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构名称</t>
-    <rPh sb="0" eb="1">
-      <t>hang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mign che g n</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构名称</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>杭州分行高新支行</t>
-  </si>
-  <si>
-    <t>杭州ABC科技有限公司</t>
-  </si>
-  <si>
-    <t>ABC12345678</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>330220198911042345</t>
-  </si>
-  <si>
-    <t>杭州BCD科技有限公司</t>
-  </si>
-  <si>
-    <t>杭州分行滨江支行</t>
-  </si>
-  <si>
-    <t>杭州DEF科技有限公司</t>
-  </si>
-  <si>
-    <t>借款人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>担保人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同借款人</t>
-  </si>
-  <si>
-    <t>业务编号</t>
-    <rPh sb="0" eb="1">
-      <t>ye wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bian haoan hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号／统一社会信用代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>身份证号</t>
     </r>
     <r>
@@ -125,112 +41,94 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>／统一社会信用代码</t>
     </r>
-    <rPh sb="0" eb="1">
-      <t>shen fen</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zheng</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ying ye</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhi zhao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>杭州分行高新支行</t>
+  </si>
+  <si>
+    <t>杭州ABC科技有限公司</t>
+  </si>
+  <si>
+    <t>ABC12345678</t>
+  </si>
+  <si>
+    <t>借款人</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>330220198911042345</t>
+  </si>
+  <si>
+    <t>共同借款人</t>
+  </si>
+  <si>
+    <t>杭州BCD科技有限公司</t>
+  </si>
+  <si>
+    <t>担保人</t>
+  </si>
+  <si>
+    <t>杭州分行滨江支行</t>
+  </si>
+  <si>
+    <t>杭州DEF科技有限公司</t>
+  </si>
+  <si>
+    <t>提示文案上方请务必空一行</t>
+  </si>
+  <si>
+    <t>列名红色的为必填项，其中“身份证／统一社会信用代码”列，如果债务人为自然人，则要求身份证号必填，如果为企业，统一社会信用代码选填。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每一笔业务的独立编号，无固定编号规则限制，最长支持32字符。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（系统以业务编号、机构名称、借款人及借款人身份信息是否相同识别业务是否重复，因此若一个借款人涉及多笔业务，请务必区分业务编号）</t>
+    </r>
   </si>
   <si>
     <t>负责人、团队的名称，用于标识，方便后期的筛选本人或本团队负责的数据。</t>
-    <rPh sb="8" eb="9">
-      <t>yong yu</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ruo</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ji gou</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ming cheng</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>bu tong</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>xiang tong</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ye wubu huiquchong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>债务人名称，必填。</t>
-    <rPh sb="0" eb="9">
-      <t>bi tian xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列名红色的为必填项，其中“身份证／统一社会信用代码”列，如果债务人为自然人，则要求身份证号必填，如果为企业，统一社会信用代码选填。</t>
-    <rPh sb="4" eb="5">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>qi zhong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shen fen zheng</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ying ye zhi zhao</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>lie</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ru guo</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ge ren</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yao qiu</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>bi tian</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ru guo</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>qi ye</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>xuan tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号／统一社会信用代码</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>债务人证件号码，自然人为身份证或护照号，企业为统一社会信用代码。</t>
     </r>
     <r>
@@ -239,7 +137,6 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>债务人为个人时必须填写身份证号。</t>
@@ -250,39 +147,20 @@
         <sz val="12"/>
         <color rgb="FF0070C0"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（只支持输入数字、字母、*）</t>
     </r>
-    <rPh sb="36" eb="37">
-      <t>jie kuan ren</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ge ren</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>de</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>bi xu</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>tian xie</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>sehn fen zheng</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>债务人在业务中的角色可以是借款人、担保人、共同借款人。</t>
     </r>
     <r>
@@ -291,7 +169,6 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统以借款人位置识别业务长度，因此每笔业务的第一行请务必填写借款人</t>
@@ -302,73 +179,27 @@
         <sz val="12"/>
         <color rgb="FF0070C0"/>
         <rFont val="仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；一笔业务有多个借款人的情况下，除第一行外的借款人请填为共同借款人。</t>
     </r>
-    <rPh sb="35" eb="36">
-      <t>qie wei</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>bi</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>每一笔业务的独立编号，无固定编号规则限制，最长支持32字符。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（系统以业务编号、机构名称、借款人及借款人身份信息是否相同识别业务是否重复，因此若一个借款人涉及多笔业务，请务必区分业务编号）</t>
-    </r>
-    <rPh sb="21" eb="22">
-      <t>zui chang</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>zhi chi</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>zi fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示文案上方请务必空一行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -377,7 +208,27 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -386,60 +237,370 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color rgb="FFC00000"/>
+      <name val="仿宋"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="仿宋"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -447,84 +608,370 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -782,48 +1229,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="20.125" style="1"/>
+    <col min="5" max="5" width="11.125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="20.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -832,21 +1274,21 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="8">
         <v>1001</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -855,7 +1297,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
@@ -865,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -874,15 +1316,15 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -891,19 +1333,19 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="8">
         <v>1002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -912,7 +1354,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -925,7 +1367,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="8"/>
@@ -938,7 +1380,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="10"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
@@ -951,7 +1393,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -964,7 +1406,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -977,7 +1419,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -990,7 +1432,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1003,7 +1445,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="15"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1016,9 +1458,9 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="20" t="s">
-        <v>28</v>
+    <row r="14" spans="1:11">
+      <c r="A14" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1031,11 +1473,11 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="16"/>
+    <row r="15" spans="1:11">
+      <c r="A15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17"/>
       <c r="C15" s="10"/>
       <c r="D15" s="14"/>
       <c r="E15" s="10"/>
@@ -1046,16 +1488,16 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>27</v>
+    <row r="16" spans="1:11">
+      <c r="A16" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -1063,12 +1505,12 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>22</v>
+    <row r="17" spans="1:11">
+      <c r="A17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="14"/>
@@ -1080,12 +1522,12 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>23</v>
+    <row r="18" spans="1:11">
+      <c r="A18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="14"/>
@@ -1097,29 +1539,29 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>26</v>
+    <row r="19" s="2" customFormat="1" spans="1:11">
+      <c r="A19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="14"/>
@@ -1132,8 +1574,8 @@
       <c r="K20" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/static/template.xlsx
+++ b/src/static/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22845" windowHeight="11400" tabRatio="500"/>
+    <workbookView windowWidth="28130" windowHeight="12530" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="导入模版" sheetId="1" r:id="rId1"/>
@@ -122,13 +122,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
       <t>债务人证件号码，自然人为身份证或护照号，企业为统一社会信用代码。</t>
     </r>
     <r>
@@ -149,7 +142,7 @@
         <rFont val="仿宋"/>
         <charset val="134"/>
       </rPr>
-      <t>（只支持输入数字、字母、*）</t>
+      <t>（只支持输入数字、字母、*、小括号）</t>
     </r>
   </si>
   <si>
@@ -190,12 +183,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,13 +200,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -256,6 +242,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -263,16 +256,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,61 +286,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,16 +330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,9 +346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,6 +364,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,187 +401,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,6 +592,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -633,36 +643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -670,24 +650,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,214 +668,232 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1238,10 +1218,10 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="3" customWidth="1"/>
@@ -1382,10 +1362,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="10"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1397,7 +1377,7 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1410,7 +1390,7 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1423,7 +1403,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1436,7 +1416,7 @@
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1446,10 +1426,10 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1459,12 +1439,12 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1474,12 +1454,12 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1489,15 +1469,15 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -1506,14 +1486,14 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1523,14 +1503,14 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1540,31 +1520,31 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:11">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="14"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>

--- a/src/static/template.xlsx
+++ b/src/static/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28130" windowHeight="12530" tabRatio="500"/>
+    <workbookView windowWidth="20970" windowHeight="5235" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="导入模版" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>业务编号</t>
   </si>
@@ -25,27 +25,7 @@
     <t>名称</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>身份证号</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>／统一社会信用代码</t>
-    </r>
+    <t>身份证（企业可不填）</t>
   </si>
   <si>
     <t>角色</t>
@@ -118,10 +98,14 @@
     <t>债务人名称，必填。</t>
   </si>
   <si>
-    <t>身份证号／统一社会信用代码</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>债务人证件号码，自然人为身份证或护照号，企业为统一社会信用代码。</t>
     </r>
     <r>
@@ -184,9 +168,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -212,16 +196,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -244,24 +228,77 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -272,6 +309,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +360,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -292,101 +368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,187 +385,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,15 +576,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -623,7 +598,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,6 +614,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,175 +676,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -860,25 +844,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1217,11 +1201,11 @@
   <sheetPr/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="3" customWidth="1"/>
@@ -1521,10 +1505,10 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="1:11">
       <c r="A19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
@@ -1541,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="12"/>

--- a/src/static/template.xlsx
+++ b/src/static/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20970" windowHeight="5235" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="导入模版" sheetId="1" r:id="rId1"/>
@@ -168,8 +168,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -225,23 +225,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,9 +264,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,20 +290,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,45 +309,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,6 +323,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -352,15 +347,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -368,9 +362,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,187 +385,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,6 +576,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -598,7 +628,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,35 +657,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,166 +676,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,8 +1201,8 @@
   <sheetPr/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="14.25"/>

--- a/src/static/template.xlsx
+++ b/src/static/template.xlsx
@@ -168,8 +168,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -225,32 +225,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,8 +329,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,42 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -325,15 +355,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,29 +370,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,37 +385,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,37 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,103 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,32 +579,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,24 +601,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,167 +623,204 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="14.25"/>

--- a/src/static/template.xlsx
+++ b/src/static/template.xlsx
@@ -64,7 +64,7 @@
     <t>杭州DEF科技有限公司</t>
   </si>
   <si>
-    <t>提示文案上方请务必空一行</t>
+    <t>本行提示文案上方请务必空一行，另请在填写业务信息时确保信息之间没有空行。</t>
   </si>
   <si>
     <t>列名红色的为必填项，其中“身份证／统一社会信用代码”列，如果债务人为自然人，则要求身份证号必填，如果为企业，统一社会信用代码选填。</t>
@@ -167,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -225,6 +225,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -232,83 +255,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,14 +314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -369,6 +346,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -385,187 +385,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,11 +581,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,17 +621,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,23 +660,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,10 +682,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,133 +694,133 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="14.25"/>
